--- a/reports/Week Total (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Week Total (Prior Year)_PayrollHistory.xlsx
@@ -58,9 +58,6 @@
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
     <t>D4054</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
     <t>D5202</t>
   </si>
   <si>
+    <t>D5203</t>
+  </si>
+  <si>
     <t>D5205</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>D6720</t>
   </si>
   <si>
-    <t>D6721</t>
-  </si>
-  <si>
     <t>D6730</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>D6780</t>
+  </si>
+  <si>
+    <t>D6781</t>
   </si>
   <si>
     <t>D6790</t>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>35657.62</v>
+        <v>31619.10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>18140.85</v>
+        <v>16486.90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>14781.39</v>
+        <v>14353.04</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>5650.54</v>
+        <v>5335.93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>15112.11</v>
+        <v>15625.48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>7873.77</v>
+        <v>7587.27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>28399.91</v>
+        <v>30771.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>7858.91</v>
+        <v>7546.60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>28579.26</v>
+        <v>29727.86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2320.98</v>
+        <v>2497.42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>8507.42</v>
+        <v>8406.24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>715.13</v>
+        <v>7509.41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>6378.22</v>
+        <v>4655.12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>4222.35</v>
+        <v>13192.61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>13629.07</v>
+        <v>5435.61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>5092.74</v>
+        <v>5299.15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2325.29</v>
+        <v>523.34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>494.25</v>
+        <v>461.55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2346.55</v>
+        <v>3034.95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>3441.93</v>
+        <v>2412.94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>10452.93</v>
+        <v>16104.50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2192.46</v>
+        <v>2412.62</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1567.04</v>
+        <v>1768.34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>12107.33</v>
+        <v>14818.58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>4158.03</v>
+        <v>4269.87</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>11324.53</v>
+        <v>11213.30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>3549.54</v>
+        <v>3047.36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>291.38</v>
+        <v>1406.59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1419.29</v>
+        <v>6110.07</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>6128.59</v>
+        <v>10665.87</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>9760.97</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>5437.52</v>
+        <v>5792.28</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>842.74</v>
+        <v>801.43</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2699.76</v>
+        <v>2693.10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>4931.99</v>
+        <v>4743.93</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>8963.04</v>
+        <v>9027.93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>5392.34</v>
+        <v>6177.31</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>1441.76</v>
+        <v>1576.94</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>1851.38</v>
+        <v>2293.13</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Week Total (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>department</t>
   </si>
@@ -52,43 +52,31 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
   </si>
   <si>
     <t>D5810</t>
@@ -97,7 +85,7 @@
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -106,16 +94,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -127,12 +115,12 @@
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -146,6 +134,12 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -508,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2320.32</v>
+        <v>7178.16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>31619.10</v>
+        <v>33844.73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>16486.90</v>
+        <v>10420.93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>14353.04</v>
+        <v>17641.75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>5335.93</v>
+        <v>3503.80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>15625.48</v>
+        <v>7329.45</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>7587.27</v>
+        <v>5065.64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>30771.03</v>
+        <v>21916.13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>7546.60</v>
+        <v>14038.92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>29727.86</v>
+        <v>24941.43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2497.42</v>
+        <v>16615.64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>8406.24</v>
+        <v>3066.59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>7509.41</v>
+        <v>1355.02</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>4655.12</v>
+        <v>6718.40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>13192.61</v>
+        <v>1293.97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>5435.61</v>
+        <v>7428.24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>5299.15</v>
+        <v>8799.69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>523.34</v>
+        <v>15008.34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>461.55</v>
+        <v>2976.60</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>3034.95</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2412.94</v>
+        <v>2182.26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>16104.50</v>
+        <v>4298.56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2412.62</v>
+        <v>3143.69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1768.34</v>
+        <v>1668.64</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>4628.08</v>
+        <v>4584.63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>14818.58</v>
+        <v>2514.80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>4269.87</v>
+        <v>5635.86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>11213.30</v>
+        <v>5145.06</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>2836.96</v>
+        <v>2113.08</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>3047.36</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1406.59</v>
+        <v>4118.69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>6110.07</v>
+        <v>2417.60</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>10665.87</v>
+        <v>7448.32</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>108.00</v>
+        <v>5962.14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>5792.28</v>
+        <v>6153.84</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>801.43</v>
+        <v>4305.93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2693.10</v>
+        <v>2238.71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>4743.93</v>
+        <v>5820.10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>9027.93</v>
+        <v>1666.19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,23 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>6177.31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1576.94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2293.13</v>
+        <v>331.00</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Week Total (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>department</t>
   </si>
@@ -52,31 +52,43 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D4034</t>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D4055</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D5112</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D5203</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D5209</t>
   </si>
   <si>
     <t>D5810</t>
@@ -85,7 +97,7 @@
     <t>D5820</t>
   </si>
   <si>
-    <t>D6030</t>
+    <t>D6212</t>
   </si>
   <si>
     <t>D6215</t>
@@ -94,16 +106,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6721</t>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6720</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D6750</t>
   </si>
   <si>
     <t>D6780</t>
@@ -115,12 +127,12 @@
     <t>D6790</t>
   </si>
   <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D7010</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -134,12 +146,6 @@
   </si>
   <si>
     <t>D8060</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>7178.16</v>
+        <v>2320.32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>33844.73</v>
+        <v>31619.10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>10420.93</v>
+        <v>16486.90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>17641.75</v>
+        <v>14353.04</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>3503.80</v>
+        <v>5335.93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>7329.45</v>
+        <v>15625.48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>5065.64</v>
+        <v>7587.27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>21916.13</v>
+        <v>30771.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>14038.92</v>
+        <v>7546.60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>24941.43</v>
+        <v>29727.86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>16615.64</v>
+        <v>2497.42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>3066.59</v>
+        <v>8406.24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1355.02</v>
+        <v>7509.41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>6718.40</v>
+        <v>4655.12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1293.97</v>
+        <v>13192.61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>7428.24</v>
+        <v>5435.61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>8799.69</v>
+        <v>5299.15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>15008.34</v>
+        <v>523.34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>2976.60</v>
+        <v>461.55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>216.21</v>
+        <v>3034.95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2182.26</v>
+        <v>2412.94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>4298.56</v>
+        <v>16104.50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>3143.69</v>
+        <v>2412.62</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1668.64</v>
+        <v>1768.34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>4584.63</v>
+        <v>4628.08</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>2514.80</v>
+        <v>14818.58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>5635.86</v>
+        <v>4269.87</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>5145.06</v>
+        <v>11213.30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>2113.08</v>
+        <v>2836.96</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>118.27</v>
+        <v>3047.36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>4118.69</v>
+        <v>1406.59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>2417.60</v>
+        <v>6110.07</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>7448.32</v>
+        <v>10665.87</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>5962.14</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>6153.84</v>
+        <v>5792.28</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>4305.93</v>
+        <v>801.43</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2238.71</v>
+        <v>2693.10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>5820.10</v>
+        <v>4743.93</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>1666.19</v>
+        <v>9027.93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +843,23 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>331.00</v>
+        <v>6177.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1576.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2293.13</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Week Total (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>department</t>
   </si>
@@ -22,130 +22,124 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
-    <t>D1030</t>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
   </si>
   <si>
     <t>D1100</t>
   </si>
   <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
+    <t>D3000</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D6781</t>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
   </si>
   <si>
     <t>D8040</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
 </sst>
 </file>
@@ -508,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>4269.87</v>
+        <v>6153.84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>14353.04</v>
+        <v>24941.43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>7587.27</v>
+        <v>1293.97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>523.34</v>
+        <v>7448.32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1768.34</v>
+        <v>5962.14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>4628.08</v>
+        <v>7178.16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>14818.58</v>
+        <v>6718.40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>1576.94</v>
+        <v>1668.64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>29727.86</v>
+        <v>2514.80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>5299.15</v>
+        <v>2417.60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1406.59</v>
+        <v>33844.73</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2693.10</v>
+        <v>14038.92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>16486.90</v>
+        <v>4584.63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>15625.48</v>
+        <v>4118.69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>13192.61</v>
+        <v>331.00</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>5435.61</v>
+        <v>17641.75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>16104.50</v>
+        <v>3066.59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>108.00</v>
+        <v>1355.02</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>6177.31</v>
+        <v>8799.69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2320.32</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>7509.41</v>
+        <v>4298.56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>3034.95</v>
+        <v>5635.86</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>11213.30</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>3047.36</v>
+        <v>10420.93</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>5792.28</v>
+        <v>3503.80</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>2497.42</v>
+        <v>7329.45</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>8406.24</v>
+        <v>2182.26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>4655.12</v>
+        <v>1666.19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>2412.62</v>
+        <v>21916.13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>10665.87</v>
+        <v>15008.34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>4743.93</v>
+        <v>3143.69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>31619.10</v>
+        <v>2238.71</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>5335.93</v>
+        <v>5820.10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>30771.03</v>
+        <v>5065.64</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>7546.60</v>
+        <v>16615.64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>461.55</v>
+        <v>7428.24</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2412.94</v>
+        <v>2976.60</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2836.96</v>
+        <v>5145.06</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>6110.07</v>
+        <v>2113.08</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,23 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>801.43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>9027.93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2293.13</v>
+        <v>4305.93</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Week Total (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>department</t>
   </si>
@@ -22,28 +22,103 @@
     <t>total</t>
   </si>
   <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5203</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D8030</t>
   </si>
   <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
     <t>D2000</t>
   </si>
   <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
+    <t>D5202</t>
   </si>
   <si>
     <t>D6730</t>
@@ -52,91 +127,22 @@
     <t>D7010</t>
   </si>
   <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D9012</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D6740</t>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5208</t>
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D6780</t>
   </si>
   <si>
     <t>D8040</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>6153.84</v>
+        <v>4269.87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>24941.43</v>
+        <v>14353.04</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1293.97</v>
+        <v>7587.27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>7448.32</v>
+        <v>523.34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>5962.14</v>
+        <v>1768.34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>7178.16</v>
+        <v>2497.42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>6718.40</v>
+        <v>8406.24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>1668.64</v>
+        <v>4655.12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2514.80</v>
+        <v>2412.62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>2417.60</v>
+        <v>10665.87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>33844.73</v>
+        <v>4743.93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>14038.92</v>
+        <v>2320.32</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>4584.63</v>
+        <v>7509.41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>4118.69</v>
+        <v>3034.95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>331.00</v>
+        <v>11213.30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>17641.75</v>
+        <v>3047.36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>3066.59</v>
+        <v>5792.28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1355.02</v>
+        <v>31619.10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>8799.69</v>
+        <v>5335.93</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>216.21</v>
+        <v>30771.03</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>4298.56</v>
+        <v>7546.60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>5635.86</v>
+        <v>461.55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>118.27</v>
+        <v>2412.94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>10420.93</v>
+        <v>2836.96</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>3503.80</v>
+        <v>6110.07</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>7329.45</v>
+        <v>801.43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>2182.26</v>
+        <v>9027.93</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>1666.19</v>
+        <v>2293.13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>21916.13</v>
+        <v>4628.08</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>15008.34</v>
+        <v>14818.58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>3143.69</v>
+        <v>1576.94</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>2238.71</v>
+        <v>29727.86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>5820.10</v>
+        <v>5299.15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>5065.64</v>
+        <v>1406.59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>16615.64</v>
+        <v>2693.10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>7428.24</v>
+        <v>16486.90</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>2976.60</v>
+        <v>15625.48</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>5145.06</v>
+        <v>13192.61</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>2113.08</v>
+        <v>5435.61</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +843,23 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>4305.93</v>
+        <v>16104.50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>108.00</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6177.31</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Week Total (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>department</t>
   </si>
@@ -22,130 +22,124 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
     <t>D1030</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5203</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
   </si>
   <si>
     <t>D5810</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D8040</t>
   </si>
 </sst>
 </file>
@@ -508,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>4269.87</v>
+        <v>6153.84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>14353.04</v>
+        <v>24941.43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>7587.27</v>
+        <v>1293.97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>523.34</v>
+        <v>7448.32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1768.34</v>
+        <v>5962.14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2497.42</v>
+        <v>10420.93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>8406.24</v>
+        <v>3503.80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>4655.12</v>
+        <v>7329.45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2412.62</v>
+        <v>2182.26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>10665.87</v>
+        <v>1666.19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>4743.93</v>
+        <v>21916.13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2320.32</v>
+        <v>15008.34</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>7509.41</v>
+        <v>3143.69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>3034.95</v>
+        <v>2238.71</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>11213.30</v>
+        <v>5820.10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>3047.36</v>
+        <v>33844.73</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>5792.28</v>
+        <v>14038.92</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>31619.10</v>
+        <v>4584.63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>5335.93</v>
+        <v>4118.69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>30771.03</v>
+        <v>331.00</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>7546.60</v>
+        <v>7178.16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>461.55</v>
+        <v>6718.40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2412.94</v>
+        <v>1668.64</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>2836.96</v>
+        <v>2514.80</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>6110.07</v>
+        <v>2417.60</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>801.43</v>
+        <v>5065.64</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>9027.93</v>
+        <v>16615.64</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>2293.13</v>
+        <v>7428.24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>4628.08</v>
+        <v>2976.60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>14818.58</v>
+        <v>5145.06</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1576.94</v>
+        <v>2113.08</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>29727.86</v>
+        <v>4305.93</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>5299.15</v>
+        <v>17641.75</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1406.59</v>
+        <v>3066.59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>2693.10</v>
+        <v>1355.02</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>16486.90</v>
+        <v>8799.69</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>15625.48</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>13192.61</v>
+        <v>4298.56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>5435.61</v>
+        <v>5635.86</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,23 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>16104.50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>108.00</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>6177.31</v>
+        <v>118.27</v>
       </c>
     </row>
   </sheetData>
